--- a/data/trans_dic/P33_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2961984334359076</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3233403074140118</v>
+        <v>0.3233403074140117</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3435256163427889</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.243581228334537</v>
+        <v>0.2435313076935311</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3157543591368704</v>
+        <v>0.3165011186555898</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2647608527049388</v>
+        <v>0.2686694691836484</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2870682204708179</v>
+        <v>0.2869290340367662</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3165645837673827</v>
+        <v>0.3196702011493416</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4055595274015102</v>
+        <v>0.4057703333197962</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3671008796953282</v>
+        <v>0.3684959535262716</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3707315203956899</v>
+        <v>0.3708828215123094</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2915757859449315</v>
+        <v>0.2926800688278688</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3776575396008009</v>
+        <v>0.3767601538847462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.331713900671482</v>
+        <v>0.3332789328565943</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3463360153928097</v>
+        <v>0.3458983963113967</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2991969043663398</v>
+        <v>0.2989595361612378</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3772051131427308</v>
+        <v>0.3786160102938004</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.330115984348371</v>
+        <v>0.328816040130857</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3620465280935222</v>
+        <v>0.3600358330187006</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3724127461363902</v>
+        <v>0.3725010721461227</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.463469044574671</v>
+        <v>0.4624009002874169</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4320718101815532</v>
+        <v>0.4317280568841497</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4240857983469399</v>
+        <v>0.4247698726980866</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.329181425228781</v>
+        <v>0.3308697426146396</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4177254026899628</v>
+        <v>0.4179801117895955</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3805466387245015</v>
+        <v>0.3821923564530307</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.387899579424323</v>
+        <v>0.3903957711722141</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2156979194157192</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2322546651459199</v>
+        <v>0.2322546651459198</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1772840424139431</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1251614403309177</v>
+        <v>0.1228930549055401</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2044299297481305</v>
+        <v>0.204033240108656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1969085791522807</v>
+        <v>0.1979317283391304</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2115168579428925</v>
+        <v>0.2131092366843029</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1589649902911509</v>
+        <v>0.1585361086893781</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.256044340488214</v>
+        <v>0.256611246116587</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.228453460613456</v>
+        <v>0.2286458232699258</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.266493518668899</v>
+        <v>0.267769306918239</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1449854385503382</v>
+        <v>0.1448875994761664</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2356549337997001</v>
+        <v>0.2348852177724753</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2194970251276367</v>
+        <v>0.2186689764182317</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2457752838768457</v>
+        <v>0.2452928893566187</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1605965464136209</v>
+        <v>0.1587305532270845</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2416219590548646</v>
+        <v>0.2420664758126659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.233331613776225</v>
+        <v>0.2349338440622749</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2516760372410916</v>
+        <v>0.2518303136973727</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1975444866250819</v>
+        <v>0.1987183954466939</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2981715979138722</v>
+        <v>0.3010729632604693</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2673108799590025</v>
+        <v>0.2693794065416205</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3025382989985291</v>
+        <v>0.302454973233891</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1724343925531857</v>
+        <v>0.1719097559119667</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2638583150544951</v>
+        <v>0.2630304502888668</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2458315827292497</v>
+        <v>0.2467766351563512</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2711044187591529</v>
+        <v>0.2712923951921785</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1332919452409436</v>
+        <v>0.1316951992033301</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1892183204646364</v>
+        <v>0.1871525989722831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1748175490858245</v>
+        <v>0.1728719133631134</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1930251141830863</v>
+        <v>0.1884301048897442</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1321393602548971</v>
+        <v>0.133737576609489</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1541551738643785</v>
+        <v>0.1515854161243622</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1792033495540971</v>
+        <v>0.1782970186415599</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2471418253636253</v>
+        <v>0.2459182004728898</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1417410874132428</v>
+        <v>0.1433021582708089</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1793599954687047</v>
+        <v>0.1811148370794779</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1862130066140566</v>
+        <v>0.186970923771124</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2283470668489136</v>
+        <v>0.2283207104990738</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.199064484957528</v>
+        <v>0.2016011501964182</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2703283807620862</v>
+        <v>0.2667805638683742</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2472078240336705</v>
+        <v>0.2456017436719284</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2603419343345867</v>
+        <v>0.2615677300957115</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2026883148241325</v>
+        <v>0.2034484427643761</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2287850623972085</v>
+        <v>0.2295267524902827</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2479117511063309</v>
+        <v>0.2517131863296032</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3038676934703042</v>
+        <v>0.3076833227392505</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1899139115714411</v>
+        <v>0.1880872400828438</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2338344976806766</v>
+        <v>0.2377535387854358</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2368959067480552</v>
+        <v>0.2429888982165652</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2723724061286657</v>
+        <v>0.2734595923186681</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2856734880828589</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3073044305488104</v>
+        <v>0.3073044305488103</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2133646904423134</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1715312854670004</v>
+        <v>0.1723010670209636</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2429626170315691</v>
+        <v>0.2439738614788572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2182197190698582</v>
+        <v>0.2174468896924254</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2304104535857239</v>
+        <v>0.2303824895824458</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2246427540935662</v>
+        <v>0.2258865220161908</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3094347123532504</v>
+        <v>0.3104746279282943</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2693394497691051</v>
+        <v>0.2711647166254705</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2951802773181387</v>
+        <v>0.2949693200307627</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2029643550504572</v>
+        <v>0.2031120857314236</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.28160645352052</v>
+        <v>0.2815935033057879</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2482946709725793</v>
+        <v>0.2489849603130063</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2676878790845503</v>
+        <v>0.2673673068203591</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1988603181519982</v>
+        <v>0.200546115789403</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2760127719947122</v>
+        <v>0.2739867405556211</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2487273525044024</v>
+        <v>0.2463557642793072</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.261489598534814</v>
+        <v>0.2614132842125299</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2553810262365986</v>
+        <v>0.2559794162515445</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3412171693778079</v>
+        <v>0.3415840510926192</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3023087659937013</v>
+        <v>0.3022362548703854</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.320296250027346</v>
+        <v>0.3219728344143525</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2238148681723865</v>
+        <v>0.2235254337148921</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3040927231917376</v>
+        <v>0.3045649775180993</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2702567387874124</v>
+        <v>0.2698240209360014</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2882120073127539</v>
+        <v>0.2862799267661433</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>248289</v>
+        <v>248238</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>306026</v>
+        <v>306750</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>199190</v>
+        <v>202131</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>161117</v>
+        <v>161039</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>414190</v>
+        <v>418253</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>541304</v>
+        <v>541585</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>362001</v>
+        <v>363376</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>291395</v>
+        <v>291514</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>678706</v>
+        <v>681276</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>870085</v>
+        <v>868017</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>576667</v>
+        <v>579388</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>466601</v>
+        <v>466012</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>304980</v>
+        <v>304738</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>365583</v>
+        <v>366951</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>248359</v>
+        <v>247381</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>203198</v>
+        <v>202070</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>487261</v>
+        <v>487376</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>618596</v>
+        <v>617171</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>426069</v>
+        <v>425730</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>333332</v>
+        <v>333870</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>766241</v>
+        <v>770171</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>962397</v>
+        <v>962984</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>661560</v>
+        <v>664421</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>522598</v>
+        <v>525961</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>208437</v>
+        <v>204659</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>399904</v>
+        <v>399128</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>407921</v>
+        <v>410040</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>455524</v>
+        <v>458954</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>250095</v>
+        <v>249421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>448472</v>
+        <v>449465</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>452866</v>
+        <v>453248</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>560563</v>
+        <v>563246</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>469552</v>
+        <v>469235</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>873745</v>
+        <v>870891</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>889827</v>
+        <v>886470</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1046286</v>
+        <v>1044232</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>267448</v>
+        <v>264341</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>472659</v>
+        <v>473528</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>483376</v>
+        <v>486695</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>542011</v>
+        <v>542344</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>310791</v>
+        <v>312638</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>522259</v>
+        <v>527341</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>529894</v>
+        <v>533994</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>636382</v>
+        <v>636207</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>558449</v>
+        <v>556750</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>978315</v>
+        <v>975246</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>996586</v>
+        <v>1000417</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1154114</v>
+        <v>1154915</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>72635</v>
+        <v>71765</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>91048</v>
+        <v>90054</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>95605</v>
+        <v>94541</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>135417</v>
+        <v>132193</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>62829</v>
+        <v>63589</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>70700</v>
+        <v>69522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>98408</v>
+        <v>97910</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>179931</v>
+        <v>179040</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>144634</v>
+        <v>146227</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>168565</v>
+        <v>170214</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>204094</v>
+        <v>204925</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>326445</v>
+        <v>326407</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>108477</v>
+        <v>109859</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>130077</v>
+        <v>128370</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>135194</v>
+        <v>134316</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>182643</v>
+        <v>183503</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>96373</v>
+        <v>96735</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>104928</v>
+        <v>105268</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>136138</v>
+        <v>138226</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>221231</v>
+        <v>224009</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>193790</v>
+        <v>191926</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>219761</v>
+        <v>223444</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>259644</v>
+        <v>266322</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>389383</v>
+        <v>390937</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>553978</v>
+        <v>556464</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>827667</v>
+        <v>831112</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>735586</v>
+        <v>732981</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>787176</v>
+        <v>787080</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>754157</v>
+        <v>758332</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1096909</v>
+        <v>1100595</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>947418</v>
+        <v>953838</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1067822</v>
+        <v>1067059</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1336874</v>
+        <v>1337847</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1957571</v>
+        <v>1957481</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1710356</v>
+        <v>1715111</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1882898</v>
+        <v>1880643</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>642240</v>
+        <v>647685</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>940255</v>
+        <v>933353</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>838423</v>
+        <v>830429</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>893355</v>
+        <v>893094</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>857349</v>
+        <v>859358</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1209574</v>
+        <v>1210874</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1063390</v>
+        <v>1063134</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1158680</v>
+        <v>1164745</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1474211</v>
+        <v>1472305</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2113883</v>
+        <v>2117166</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1861640</v>
+        <v>1858659</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2027264</v>
+        <v>2013674</v>
       </c>
     </row>
     <row r="20">
